--- a/medicine/Enfance/Sally_Lockhart/Sally_Lockhart.xlsx
+++ b/medicine/Enfance/Sally_Lockhart/Sally_Lockhart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sally Lockhart est une série de romans pour la jeunesse écrite par le Britannique Philip Pullman (auteur de la série À la croisée des mondes) et développée en quatre volets. Elle relate les aventures de son héroïne éponyme, une jeune femme anglaise évoluant dans la ville de Londres au cours de la seconde moitié du XIXe siècle. La série a été publiée en France par Folio Junior.
@@ -512,7 +524,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Malédiction du rubis, Gallimard, 2003 ((en) The Ruby in the Smoke, 1985), trad. Jean Esch, 350 p.  (ISBN 2-07-053849-4)
 Le Mystère de l'Étoile polaire (en), Gallimard, 2003 ((en) The Shadow in the North, 1986), trad. Jean Esch, 364 p.  (ISBN 2-07-053850-8)
@@ -547,16 +561,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Malédiction du rubis
-Dans le premier opus, l'auteur pose son décor. L'action se déroule dans les sombres ruelles du Londres des années 1870. La jeune et impétueuse Sally Lockhart est orpheline de mère depuis sa plus tendre enfance. Son père, le capitaine Lockhart l'a élevée seul et lui a enseigné notamment à se servir d'une arme à feu et à tenir des comptes, talents qui lui seront bien utiles dans ses aventures.
+          <t>La Malédiction du rubis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le premier opus, l'auteur pose son décor. L'action se déroule dans les sombres ruelles du Londres des années 1870. La jeune et impétueuse Sally Lockhart est orpheline de mère depuis sa plus tendre enfance. Son père, le capitaine Lockhart l'a élevée seul et lui a enseigné notamment à se servir d'une arme à feu et à tenir des comptes, talents qui lui seront bien utiles dans ses aventures.
 Le roman commence au moment où Sally apprend le décès prématuré de son père. Ce dernier était en mission pour sa société Lockhart &amp; Selby lorsque son bateau a sombré. Elle reçoit alors un message lui indiquant l'existence de secrets concernant sa naissance et un rubis.
 Elle fait la connaissance de personnes qui l'aideront dans sa recherche de la vérité. Elle rencontre tout d'abord Jim Taylor, un jeune homme espiègle et aventurier travaillant au bureau de la société de son père. Alors qu'elle tente d'échapper à la terrible Mme Holland, elle croise le chemin du photographe Frederick Garland. Ils se prennent d'amitié l'un pour l'autre et il lui propose de venir habiter chez lui et sa sœur Rosa (comédienne et photographe), en échange de la tenue des comptes de leur société de photographie.
-Le Mystère de l'Étoile polaire
-Sans renoncer pour autant à ses activités de détective, Sally Lockhart est devenue conseillère en placement financiers. Et quand l'une de ses clientes, après avoir perdu ses économies dans la faillite d'une entreprise, vient lui demander de l'aide, elle se retrouve sur la piste d'un homme d'affaires puissant et sans scrupule à la tête d'une mystérieuse usine : l'Étoile polaire. Pour Sally commence alors l’enquête de tous les dangers...
-La Vengeance du tigre
-Un parfait inconnu prétend avoir épousé Sally Lockhart… et il réclame la garde de sa fille Harriet, ainsi que tous les biens de la jeune femme ! Une mauvaise plaisanterie ? Sally l'espère… Pourtant le piège se referme autour d'elle. Pourquoi cet homme, qu'elle n'a jamais vu, s'acharne-t-il ainsi ? Pour sauver sa fille, Sally doit fuir, mais il lui faudra affronter les ombres de son propre passé au cœur du vieux Londres.
-La Princesse de Razkavie
-Jim Taylor, le fidèle compagnon de Sally Lockhart, est depuis longtemps à la recherche de la jeune Adélaïde, une orpheline disparue il y a des années. Quelle surprise de la découvrir sous les traits d'une jolie jeune femme au bras du prince héritier du trône de Razkavie, petit royaume indépendant au cœur de l'Europe. Mais des forces obscures sont à l'œuvre, le royaume est en danger. N'écoutant que son cœur, Jim quitte Londres pour se porter au secours de ses amis. Quatrième et dernier volume de la série Sally Lockhart, l'auteur de la célèbre trilogie À la croisée des mondes nous offre une aventure haletante dans l'Europe de la fin du XIXe siècle.
 </t>
         </is>
       </c>
@@ -582,10 +595,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le Mystère de l'Étoile polaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sans renoncer pour autant à ses activités de détective, Sally Lockhart est devenue conseillère en placement financiers. Et quand l'une de ses clientes, après avoir perdu ses économies dans la faillite d'une entreprise, vient lui demander de l'aide, elle se retrouve sur la piste d'un homme d'affaires puissant et sans scrupule à la tête d'une mystérieuse usine : l'Étoile polaire. Pour Sally commence alors l’enquête de tous les dangers...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La Vengeance du tigre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un parfait inconnu prétend avoir épousé Sally Lockhart… et il réclame la garde de sa fille Harriet, ainsi que tous les biens de la jeune femme ! Une mauvaise plaisanterie ? Sally l'espère… Pourtant le piège se referme autour d'elle. Pourquoi cet homme, qu'elle n'a jamais vu, s'acharne-t-il ainsi ? Pour sauver sa fille, Sally doit fuir, mais il lui faudra affronter les ombres de son propre passé au cœur du vieux Londres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Résumés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La Princesse de Razkavie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jim Taylor, le fidèle compagnon de Sally Lockhart, est depuis longtemps à la recherche de la jeune Adélaïde, une orpheline disparue il y a des années. Quelle surprise de la découvrir sous les traits d'une jolie jeune femme au bras du prince héritier du trône de Razkavie, petit royaume indépendant au cœur de l'Europe. Mais des forces obscures sont à l'œuvre, le royaume est en danger. N'écoutant que son cœur, Jim quitte Londres pour se porter au secours de ses amis. Quatrième et dernier volume de la série Sally Lockhart, l'auteur de la célèbre trilogie À la croisée des mondes nous offre une aventure haletante dans l'Europe de la fin du XIXe siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sally_Lockhart</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Sally Lockhart
 Sally Lockhart est une jeune femme anglaise évoluant dans la ville de Londres au cours de la seconde moitié du XIXe siècle. Elle commence une carrière de conseillère en finances, choix insolite car sa profession est peu, voire pas du tout exercée par les femmes dans la société patriarcale britannique de l'époque.
@@ -602,34 +728,36 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sally_Lockhart</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sally_Lockhart</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptation à l'écran</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La tétralogie est partiellement adaptée en 2006 et 2007 pour le petit écran sous le titre principal Les Aventures de Sally Lockhart dans sa version francophone (titre original : The Sally Lockhart Mysteries)
-Les deux premiers épisodes, La Malédiction du rubis et Le Mystère de l'Étoile polaire, sont diffusés par la chaîne franco-allemande Arte les 20 et 27 juin 2008 respectivement[1],[2]. Ils seront rediffusés durant le mois de février 2010 toujours sur Arte: les 3 et 16 pour La Malédiction du rubis ainsi que le 6 et 19 février pour Le Mystère de l'Étoile polaire. Le personnage de Sally Lockhart est interprété par la comédienne Billie Piper (Doctor Who, Journal intime d'une call girl, ...)
+Les deux premiers épisodes, La Malédiction du rubis et Le Mystère de l'Étoile polaire, sont diffusés par la chaîne franco-allemande Arte les 20 et 27 juin 2008 respectivement,. Ils seront rediffusés durant le mois de février 2010 toujours sur Arte: les 3 et 16 pour La Malédiction du rubis ainsi que le 6 et 19 février pour Le Mystère de l'Étoile polaire. Le personnage de Sally Lockhart est interprété par la comédienne Billie Piper (Doctor Who, Journal intime d'une call girl, ...)
 </t>
         </is>
       </c>
